--- a/[Data] WES_PASS/Patient-A23-indels.xlsx
+++ b/[Data] WES_PASS/Patient-A23-indels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="391">
   <si>
     <t>NG.8132_A23B_lib74160_3786_7</t>
   </si>
@@ -43,718 +43,1150 @@
     <t>GBM driver</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>chr1_16747822</t>
   </si>
   <si>
-    <t>SPATA21</t>
+    <t>TTC12 intron_variant:TTC12 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_113230773   </t>
   </si>
   <si>
     <t>chr1_16862708</t>
   </si>
   <si>
+    <t>MYO18A intron_variant&amp;NMD_transcript_variant:MYO18A intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_27443631   </t>
+  </si>
+  <si>
+    <t>chr1_29642688</t>
+  </si>
+  <si>
+    <t>ABCD3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:ABCD3 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_94982784   </t>
+  </si>
+  <si>
+    <t>chr1_47015453</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>chr1_29642688</t>
-  </si>
-  <si>
-    <t>PTPRU</t>
-  </si>
-  <si>
-    <t>chr1_47015453</t>
-  </si>
-  <si>
-    <t>KNCN:MKNK1-AS1</t>
+    <t xml:space="preserve">chr5_68309890   </t>
   </si>
   <si>
     <t>chr1_53279193</t>
   </si>
   <si>
-    <t>ZYG11B</t>
+    <t>LILRB3 intron_variant:RPS9 intron_variant&amp;NMD_transcript_variant:LILRB3 intron_variant&amp;non_coding_transcript_variant:LILRA6 intron_variant:LILRB3 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_54724006   </t>
   </si>
   <si>
     <t>chr1_57158312</t>
   </si>
   <si>
-    <t>PRKAA2</t>
+    <t xml:space="preserve">chr18_14830041   </t>
   </si>
   <si>
     <t>chr1_94982784</t>
   </si>
   <si>
-    <t>ABCD3</t>
+    <t>PAPPA2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_176681165   </t>
   </si>
   <si>
     <t>chr1_103435624</t>
   </si>
   <si>
-    <t>COL11A1</t>
+    <t xml:space="preserve">chr12_116095590   </t>
   </si>
   <si>
     <t>chr1_120612154</t>
   </si>
   <si>
-    <t>NOTCH2</t>
+    <t>HSPA4L intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_128748719   </t>
   </si>
   <si>
     <t>chr1_157665132</t>
   </si>
   <si>
-    <t>FCRL3:RP11-367J7.3</t>
+    <t>CRMP1 intron_variant:CRMP1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_5853606   </t>
   </si>
   <si>
     <t>chr1_171130590</t>
   </si>
   <si>
-    <t>FMO6P</t>
+    <t>STARD13 intron_variant:STARD13 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13_33712907   </t>
   </si>
   <si>
     <t>chr1_176681165</t>
   </si>
   <si>
-    <t>PAPPA2</t>
+    <t>CEACAMP11 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_43783108   </t>
   </si>
   <si>
     <t>chr1_215749406</t>
   </si>
   <si>
-    <t>KCTD3</t>
+    <t>CSTF2 missense_variant:CSTF2 missense_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_100078317   </t>
   </si>
   <si>
     <t>chr1_223176503</t>
   </si>
   <si>
+    <t>NUP98 intron_variant:NUP98 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_3723559   </t>
+  </si>
+  <si>
+    <t>NUP98:NUP98</t>
+  </si>
+  <si>
+    <t>intron_variant:intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
     <t>chr1_231299470</t>
   </si>
   <si>
-    <t>TRIM67</t>
+    <t>VAMP8 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_85807021   </t>
   </si>
   <si>
     <t>chr1_236722478</t>
   </si>
   <si>
-    <t>HEATR1</t>
+    <t>TUBBP5 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_141070111   </t>
   </si>
   <si>
     <t>chr2_20454511</t>
   </si>
   <si>
-    <t>PUM2</t>
+    <t>DMPK intron_variant:AC074212.6 intron_variant&amp;non_coding_transcript_variant:DMPK missense_variant:DMPK intron_variant&amp;NMD_transcript_variant:DMPK non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:DMPK intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_46274433   </t>
   </si>
   <si>
     <t>chr2_26693553</t>
   </si>
   <si>
-    <t>OTOF</t>
+    <t>KCTD3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_215749406   </t>
   </si>
   <si>
     <t>chr2_54146387</t>
   </si>
   <si>
-    <t>PSME4</t>
+    <t>CARS intron_variant:CARS non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:CARS intron_variant&amp;NMD_transcript_variant:CARS intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_3049104   </t>
+  </si>
+  <si>
+    <t>CARS:CARS:CARS:CARS</t>
+  </si>
+  <si>
+    <t>intron_variant:non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:intron_variant&amp;NMD_transcript_variant:intron_variant&amp;non_coding_transcript_variant</t>
   </si>
   <si>
     <t>chr2_179986453</t>
   </si>
   <si>
-    <t>SESTD1</t>
+    <t>RAD21 5_prime_UTR_variant:RAD21 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_117864364   </t>
+  </si>
+  <si>
+    <t>RAD21:RAD21</t>
+  </si>
+  <si>
+    <t>5_prime_UTR_variant:intron_variant</t>
   </si>
   <si>
     <t>chr2_183597061</t>
   </si>
   <si>
-    <t>DNAJC10</t>
+    <t>TMEM2 intron_variant:TMEM2 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_74360931   </t>
   </si>
   <si>
     <t>chr2_190647231</t>
   </si>
   <si>
-    <t>ORMDL1</t>
+    <t>TEX10 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_103092488   </t>
   </si>
   <si>
     <t>chr2_202965203</t>
   </si>
   <si>
-    <t>AC079354.1</t>
+    <t xml:space="preserve">chr11_58645665   </t>
   </si>
   <si>
     <t>chr2_234365516</t>
   </si>
   <si>
-    <t>DGKD</t>
+    <t>PSTPIP1 synonymous_variant&amp;NMD_transcript_variant:PSTPIP1 intron_variant&amp;NMD_transcript_variant:PSTPIP1 intron_variant:PSTPIP1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_77300226   </t>
   </si>
   <si>
     <t>chr3_2968876</t>
   </si>
   <si>
-    <t>CNTN4</t>
+    <t>ACAN synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_89414740   </t>
   </si>
   <si>
     <t>chr3_12610667</t>
   </si>
   <si>
-    <t>MKRN2</t>
+    <t>CDH8 intron_variant:CDH8 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_61823184   </t>
   </si>
   <si>
     <t>chr3_18391132</t>
   </si>
   <si>
-    <t>SATB1:TBC1D5</t>
+    <t>SLFN11 synonymous_variant:SLFN11 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_33689795   </t>
   </si>
   <si>
     <t>chr3_45677634</t>
   </si>
   <si>
-    <t>LIMD1</t>
+    <t>LAMP3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_182858198   </t>
   </si>
   <si>
     <t>chr3_101133634</t>
   </si>
   <si>
-    <t>SENP7</t>
+    <t>SOBP non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:SOBP inframe_deletion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_107956279   </t>
   </si>
   <si>
     <t>chr3_130122552</t>
   </si>
   <si>
-    <t>COL6A5</t>
+    <t>MDM1 intron_variant&amp;non_coding_transcript_variant:MDM1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_68707576   </t>
   </si>
   <si>
     <t>chr3_140401687</t>
   </si>
   <si>
-    <t>TRIM42</t>
+    <t>PPP1CC intron_variant:PPP1CC intron_variant&amp;NMD_transcript_variant:PPP1CC intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_111162261   </t>
   </si>
   <si>
     <t>chr3_150514352</t>
   </si>
   <si>
+    <t>TJP1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_30064396   </t>
+  </si>
+  <si>
     <t>chr3_157820718</t>
   </si>
   <si>
-    <t>SHOX2</t>
+    <t>EDC4 intron_variant&amp;non_coding_transcript_variant:EDC4 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_67910075   </t>
   </si>
   <si>
     <t>chr3_159482271</t>
   </si>
   <si>
-    <t>IQCJ-SCHIP1</t>
+    <t>CWC25 5_prime_UTR_variant:CWC25 3_prime_UTR_variant&amp;NMD_transcript_variant:CWC25 intron_variant:CWC25 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_36971962   </t>
   </si>
   <si>
     <t>chr3_182858198</t>
   </si>
   <si>
-    <t>LAMP3</t>
+    <t>DNAJC10 intron_variant&amp;NMD_transcript_variant:DNAJC10 intron_variant&amp;non_coding_transcript_variant:DNAJC10 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_183597061   </t>
   </si>
   <si>
     <t>chr4_959867</t>
   </si>
   <si>
-    <t>DGKQ</t>
+    <t>ATP6V1B2 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_20082778   </t>
   </si>
   <si>
     <t>chr4_5853606</t>
   </si>
   <si>
-    <t>CRMP1</t>
+    <t>SOS2 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_50605411   </t>
   </si>
   <si>
     <t>chr4_13627967</t>
   </si>
   <si>
-    <t>BOD1L1</t>
+    <t xml:space="preserve">chr16_33613335   </t>
   </si>
   <si>
     <t>chr4_16587395</t>
   </si>
   <si>
-    <t>LDB2</t>
+    <t>TRIM37 intron_variant:TRIM37 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_57124976   </t>
   </si>
   <si>
     <t>chr4_66218917</t>
   </si>
   <si>
-    <t>EPHA5</t>
+    <t xml:space="preserve">chr11_55872750   </t>
   </si>
   <si>
     <t>chr4_79792136</t>
   </si>
   <si>
-    <t>BMP2K</t>
+    <t>SPTB missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_65236392   </t>
   </si>
   <si>
     <t>chr4_103611951</t>
   </si>
   <si>
-    <t>MANBA</t>
+    <t>HS3ST3A1 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_13400053   </t>
   </si>
   <si>
     <t>chr4_121631361</t>
   </si>
   <si>
-    <t>PRDM5</t>
+    <t>ALPK1 intron_variant&amp;NMD_transcript_variant:ALPK1 intron_variant:ALPK1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_113333769   </t>
   </si>
   <si>
     <t>chr4_128748719</t>
   </si>
   <si>
-    <t>HSPA4L</t>
+    <t>CA2 intron_variant&amp;non_coding_transcript_variant:CA2 intron_variant&amp;NMD_transcript_variant:CA2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:CA2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_86386051   </t>
   </si>
   <si>
     <t>chr4_148574961</t>
   </si>
   <si>
-    <t>PRMT10:TMEM184C</t>
+    <t>FAM136A 3_prime_UTR_variant:FAM136A missense_variant:FAM136A non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_70528058   </t>
   </si>
   <si>
     <t>chr4_185620822</t>
   </si>
   <si>
-    <t>CENPU</t>
+    <t xml:space="preserve">chr1_150967779   </t>
   </si>
   <si>
     <t>chr5_64629853</t>
   </si>
   <si>
-    <t>ADAMTS6</t>
+    <t xml:space="preserve">chr6_32549241   </t>
   </si>
   <si>
     <t>chr5_176942028</t>
   </si>
   <si>
-    <t>DDX41</t>
+    <t>FAM229A non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:TSSK3 missense_variant:FAM229A intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_32829447   </t>
   </si>
   <si>
     <t>chr5_179142825</t>
   </si>
   <si>
-    <t>CANX</t>
+    <t>RNF220 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_44878343   </t>
   </si>
   <si>
     <t>chr5_180041292</t>
   </si>
   <si>
-    <t>FLT4</t>
+    <t>PLK3 splice_region_variant&amp;intron_variant&amp;non_coding_transcript_variant:PLK3 splice_region_variant&amp;intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_45269268   </t>
   </si>
   <si>
     <t>chr6_10647159</t>
   </si>
   <si>
+    <t>ZYG11B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_53279193   </t>
+  </si>
+  <si>
     <t>chr6_29855967</t>
   </si>
   <si>
-    <t>HLA-H:HCG4P7</t>
+    <t>RP11-552M11.4 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:WDR77 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_111983831   </t>
   </si>
   <si>
     <t>chr6_32790099</t>
   </si>
   <si>
-    <t>TAP2</t>
+    <t>FAM189B non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:FAM189B missense_variant:FAM189B 3_prime_UTR_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_155218008   </t>
   </si>
   <si>
     <t>chr6_90450174</t>
   </si>
   <si>
-    <t>MDN1</t>
+    <t>CGREF1 intron_variant:CGREF1 synonymous_variant:CGREF1 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_27324370   </t>
   </si>
   <si>
     <t>chr6_107956279</t>
   </si>
   <si>
-    <t>SOBP</t>
+    <t>GPN1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:CCDC121 intron_variant:ZNF512 intron_variant:RP11-158I13.2 intron_variant&amp;non_coding_transcript_variant:GPN1 5_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_27851231   </t>
   </si>
   <si>
     <t>chr6_139210071</t>
   </si>
   <si>
-    <t>ECT2L</t>
+    <t>PREPL missense_variant:PREPL missense_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_44553910   </t>
   </si>
   <si>
     <t>chr6_144872272</t>
   </si>
   <si>
-    <t>UTRN</t>
+    <t>ASB3 intron_variant:ASB3 intron_variant&amp;non_coding_transcript_variant:GPR75 synonymous_variant:GPR75-ASB3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_54080520   </t>
   </si>
   <si>
     <t>chr7_25182546</t>
   </si>
   <si>
-    <t>C7orf31</t>
+    <t>PTPN4 missense_variant:PTPN4 3_prime_UTR_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_120709565   </t>
   </si>
   <si>
     <t>chr7_30465314</t>
   </si>
   <si>
-    <t>NOD1</t>
+    <t>BIN1 intron_variant&amp;non_coding_transcript_variant:BIN1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_127821702   </t>
   </si>
   <si>
     <t>chr7_30465344</t>
   </si>
   <si>
+    <t>AMMECR1L intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_128624314   </t>
+  </si>
+  <si>
     <t>chr7_84647396</t>
   </si>
   <si>
-    <t>SEMA3D</t>
+    <t>BMPR2 synonymous_variant:BMPR2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_203332345   </t>
   </si>
   <si>
     <t>chr7_99128679</t>
   </si>
   <si>
-    <t>ZKSCAN5</t>
+    <t>ARPC2 intron_variant&amp;non_coding_transcript_variant:ARPC2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_219117574   </t>
   </si>
   <si>
     <t>chr7_130003539</t>
   </si>
   <si>
-    <t>CPA5</t>
+    <t>TTC21A intron_variant:TTC21A intron_variant&amp;NMD_transcript_variant:TTC21A intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_39152595   </t>
   </si>
   <si>
     <t>chr8_2065594</t>
   </si>
   <si>
-    <t>MYOM2</t>
+    <t>SRPRB 5_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_133524629   </t>
   </si>
   <si>
     <t>chr8_20082778</t>
   </si>
   <si>
-    <t>ATP6V1B2</t>
+    <t>SOX2-OT intron_variant&amp;non_coding_transcript_variant:SOX2 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_181430622   </t>
+  </si>
+  <si>
+    <t>SOX2</t>
+  </si>
+  <si>
+    <t>synonymous_variant</t>
   </si>
   <si>
     <t>chr8_37555933</t>
   </si>
   <si>
+    <t>DLG1 intron_variant&amp;NMD_transcript_variant:DLG1 intron_variant:DLG1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_197020744   </t>
+  </si>
+  <si>
     <t>chr8_38801586</t>
   </si>
   <si>
-    <t>PLEKHA2</t>
+    <t>HTT non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:HTT stop_gained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_3131672   </t>
   </si>
   <si>
     <t>chr8_86386051</t>
   </si>
   <si>
-    <t>CA2</t>
+    <t>CWH43 intron_variant&amp;non_coding_transcript_variant:CWH43 intron_variant:CWH43 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_49019255   </t>
   </si>
   <si>
     <t>chr8_105456840</t>
   </si>
   <si>
-    <t>DPYS</t>
+    <t>DAPP1 intron_variant&amp;non_coding_transcript_variant:DAPP1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_100738275   </t>
   </si>
   <si>
     <t>chr8_133590523</t>
   </si>
   <si>
-    <t>LRRC6</t>
+    <t>AADAT intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_170987541   </t>
   </si>
   <si>
     <t>chr9_133355846</t>
   </si>
   <si>
-    <t>ASS1</t>
+    <t>HNRNPH1 intron_variant:HNRNPH1 intron_variant&amp;non_coding_transcript_variant:HNRNPH1 intron_variant&amp;NMD_transcript_variant:HNRNPH1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_179048137   </t>
   </si>
   <si>
     <t>chr9_137314212</t>
   </si>
   <si>
-    <t>RXRA</t>
+    <t>BAG6 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_31617091   </t>
   </si>
   <si>
     <t>chr10_15060041</t>
   </si>
   <si>
-    <t>DCLRE1CP1</t>
+    <t>PEX6 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_42933237   </t>
   </si>
   <si>
     <t>chr10_26512638</t>
   </si>
   <si>
-    <t>GAD2</t>
+    <t>GSTA4 intron_variant:GSTA4 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_52858827   </t>
   </si>
   <si>
     <t>chr10_29578180</t>
   </si>
   <si>
+    <t xml:space="preserve">chr6_52993152   </t>
+  </si>
+  <si>
     <t>chr10_88423773</t>
   </si>
   <si>
-    <t>OPN4</t>
+    <t>TATDN2P2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:TMEM181 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_159031477   </t>
   </si>
   <si>
     <t>chr10_111651598</t>
   </si>
   <si>
-    <t>XPNPEP1</t>
+    <t>PDE10A intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_165832109   </t>
   </si>
   <si>
     <t>chr10_124711351</t>
   </si>
   <si>
-    <t>C10orf88</t>
+    <t>THBS2 missense_variant:XXyac-YX65C7_A.2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_169632820   </t>
   </si>
   <si>
     <t>chr10_127409714</t>
   </si>
   <si>
-    <t>EDRF1</t>
+    <t xml:space="preserve">chr7_7414839   </t>
   </si>
   <si>
     <t>chr10_127738280</t>
   </si>
   <si>
-    <t>ADAM12</t>
+    <t>AC073333.8 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:BZW2 intron_variant:BZW2 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_16737901   </t>
   </si>
   <si>
     <t>chr11_1016889</t>
   </si>
   <si>
-    <t>MUC6</t>
+    <t xml:space="preserve">chr7_37625337   </t>
   </si>
   <si>
     <t>chr11_113230773</t>
   </si>
   <si>
-    <t>TTC12</t>
+    <t>CTNNAL1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_111775550   </t>
   </si>
   <si>
     <t>chr12_51796889</t>
   </si>
   <si>
-    <t>SLC4A8</t>
+    <t>SLC25A22 intron_variant:SLC25A22 intron_variant&amp;NMD_transcript_variant:SLC25A22 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:SLC25A22 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_794356   </t>
   </si>
   <si>
     <t>chr12_62789933</t>
   </si>
   <si>
-    <t>USP15</t>
+    <t>BEST1 3_prime_UTR_variant&amp;NMD_transcript_variant:BEST1 missense_variant:BEST1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:FTH1 intron_variant:BEST1 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_61730352   </t>
   </si>
   <si>
     <t>chr12_111747809</t>
   </si>
   <si>
+    <t>PDE2A intron_variant:PDE2A intron_variant&amp;NMD_transcript_variant:RP11-169D4.2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_72297060   </t>
+  </si>
+  <si>
     <t>chr12_133306964</t>
   </si>
   <si>
-    <t>ANKLE2</t>
+    <t>C2CD2L missense_variant:DPAGT1 5_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_118978710   </t>
   </si>
   <si>
     <t>chr13_25161551</t>
   </si>
   <si>
-    <t>RP11-556N21.1:TPTE2P6</t>
+    <t>IFFO1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:IFFO1 synonymous_variant:IFFO1 synonymous_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_6665124   </t>
   </si>
   <si>
     <t>chr13_76445382</t>
   </si>
   <si>
+    <t>TSPAN11 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_31080039   </t>
+  </si>
+  <si>
     <t>chr14_60433966</t>
   </si>
   <si>
-    <t>LRRC9</t>
+    <t>HIP1R 3_prime_UTR_variant:HIP1R non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_123346356   </t>
   </si>
   <si>
     <t>chr14_106174767</t>
   </si>
   <si>
-    <t>IGHA1</t>
+    <t>FERMT2 missense_variant:FERMT2 missense_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_53417277   </t>
   </si>
   <si>
     <t>chr15_20459518</t>
   </si>
   <si>
-    <t>RP11-492D6.3</t>
+    <t>MAP3K9 missense_variant:MAP3K9 splice_donor_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_71206758   </t>
   </si>
   <si>
     <t>chr15_35155299</t>
   </si>
   <si>
-    <t>AQR</t>
+    <t>FAM181A missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_94395437   </t>
   </si>
   <si>
     <t>chr15_42168854</t>
   </si>
   <si>
-    <t>SPTBN5</t>
+    <t>EIF2AK4 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_40265710   </t>
   </si>
   <si>
     <t>chr15_43104115</t>
   </si>
   <si>
-    <t>TTBK2</t>
+    <t>SRP14 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:SRP14 5_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_40331324   </t>
   </si>
   <si>
     <t>chr15_43109127</t>
   </si>
   <si>
+    <t>PLCB2 missense_variant&amp;NMD_transcript_variant:PLCB2 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_40586474   </t>
+  </si>
+  <si>
     <t>chr15_48748665</t>
   </si>
   <si>
-    <t>FBN1</t>
+    <t>PIAS1 missense_variant:PIAS1 missense_variant&amp;NMD_transcript_variant:PIAS1 3_prime_UTR_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_68378963   </t>
   </si>
   <si>
     <t>chr15_59359324</t>
   </si>
   <si>
-    <t>RNF111</t>
+    <t>UACA synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_70960116   </t>
   </si>
   <si>
     <t>chr15_64039881</t>
   </si>
   <si>
-    <t>HERC1</t>
+    <t xml:space="preserve">chr15_75968326   </t>
   </si>
   <si>
     <t>chr15_77345149</t>
   </si>
   <si>
-    <t>TSPAN3</t>
+    <t>LMF1 intron_variant:LMF1 3_prime_UTR_variant:LMF1 3_prime_UTR_variant&amp;NMD_transcript_variant:LMF1 missense_variant:LMF1 5_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_960983   </t>
   </si>
   <si>
     <t>chr16_16108441</t>
   </si>
   <si>
-    <t>ABCC1</t>
+    <t>RABEP1 synonymous_variant:NUP88 intron_variant&amp;NMD_transcript_variant:NUP88 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_5284794   </t>
+  </si>
+  <si>
+    <t>RABEP1</t>
   </si>
   <si>
     <t>chr17_9632313</t>
   </si>
   <si>
-    <t>USP43</t>
+    <t>MXRA7 intron_variant:MXRA7 5_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_74684768   </t>
   </si>
   <si>
     <t>chr17_17039561</t>
   </si>
   <si>
-    <t>MPRIP</t>
+    <t>USP36 intron_variant:USP36 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_76795148   </t>
   </si>
   <si>
     <t>chr17_27443631</t>
   </si>
   <si>
-    <t>MYO18A</t>
+    <t>BAIAP2 intron_variant&amp;non_coding_transcript_variant:BAIAP2 intron_variant:BAIAP2 missense_variant&amp;NMD_transcript_variant:BAIAP2 intron_variant&amp;NMD_transcript_variant:BAIAP2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_79059405   </t>
   </si>
   <si>
     <t>chr17_37791879</t>
   </si>
   <si>
-    <t>PPP1R1B</t>
+    <t>PIK3C3 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18_39584424   </t>
   </si>
   <si>
     <t>chr17_38787296</t>
   </si>
   <si>
-    <t>SMARCE1:KRT222</t>
+    <t>CTIF intron_variant:CTIF intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18_46190273   </t>
   </si>
   <si>
     <t>chr17_42552364</t>
   </si>
   <si>
-    <t>GPATCH8</t>
+    <t>ARID3A missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_932713   </t>
   </si>
   <si>
     <t>chr17_48227102</t>
   </si>
   <si>
-    <t>PPP1R9B</t>
+    <t>TMPRSS9 missense_variant:TMPRSS9 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_2416693   </t>
   </si>
   <si>
     <t>chr17_54305259</t>
   </si>
   <si>
-    <t>ANKFN1</t>
+    <t>MPND intron_variant:MPND intron_variant&amp;NMD_transcript_variant:AC007292.4 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_4354013   </t>
   </si>
   <si>
     <t>chr17_57124976</t>
   </si>
   <si>
-    <t>TRIM37</t>
+    <t>DNM2 missense_variant:DNM2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:DNM2 5_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_10883241   </t>
+  </si>
+  <si>
+    <t>DNM2:DNM2:DNM2</t>
+  </si>
+  <si>
+    <t>missense_variant:non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:5_prime_UTR_variant</t>
   </si>
   <si>
     <t>chr17_62133220</t>
   </si>
   <si>
+    <t>ZNF136 missense_variant:ZNF136 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_12297500   </t>
+  </si>
+  <si>
     <t>chr17_72725268</t>
   </si>
   <si>
-    <t>RAB37</t>
+    <t>LPHN1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_14301982   </t>
   </si>
   <si>
     <t>chr18_14124481</t>
   </si>
   <si>
-    <t>ZNF519</t>
+    <t>AC003006.7 intron_variant&amp;non_coding_transcript_variant:ZNF671 synonymous_variant:ZNF671 3_prime_UTR_variant&amp;NMD_transcript_variant:AC003006.7 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_58231945   </t>
   </si>
   <si>
     <t>chr18_14760744</t>
   </si>
   <si>
-    <t>ANKRD30B</t>
+    <t>NOP56 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:NOP56 3_prime_UTR_variant&amp;NMD_transcript_variant:NOP56 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_2639018   </t>
   </si>
   <si>
     <t>chr18_14830041</t>
   </si>
   <si>
+    <t>DZANK1 splice_region_variant&amp;intron_variant:DZANK1 splice_region_variant&amp;intron_variant&amp;NMD_transcript_variant:DZANK1 splice_region_variant&amp;intron_variant&amp;non_coding_transcript_variant:DZANK1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_18434475   </t>
+  </si>
+  <si>
     <t>chr18_60795696</t>
   </si>
   <si>
-    <t>BCL2</t>
+    <t>ZNF512B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_62593928   </t>
   </si>
   <si>
     <t>chr19_29478326</t>
   </si>
   <si>
+    <t>FLNA intron_variant&amp;NMD_transcript_variant:FLNA intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_153595664   </t>
+  </si>
+  <si>
+    <t>FLNA:FLNA</t>
+  </si>
+  <si>
+    <t>intron_variant&amp;NMD_transcript_variant:intron_variant</t>
+  </si>
+  <si>
     <t>chr19_41712159</t>
   </si>
   <si>
-    <t>CYP2S1</t>
+    <t>DPY30 intron_variant:DPY30 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_32264242   </t>
   </si>
   <si>
     <t>chr19_43420765</t>
   </si>
   <si>
-    <t>PSG6</t>
+    <t>ITGA9 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_37574951   </t>
   </si>
   <si>
     <t>chr19_43783108</t>
   </si>
   <si>
-    <t>CEACAMP11</t>
+    <t xml:space="preserve">chr9_139405052   </t>
   </si>
   <si>
     <t>chr19_43783253</t>
   </si>
   <si>
+    <t>OPN4 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10_88423773   </t>
+  </si>
+  <si>
     <t>chr19_49931932</t>
   </si>
   <si>
+    <t>ST7L intron_variant&amp;non_coding_transcript_variant:ST7L intron_variant:ST7L intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_113119821   </t>
+  </si>
+  <si>
     <t>chr20_29612944</t>
   </si>
   <si>
-    <t>FRG1B</t>
+    <t>DUSP22 synonymous_variant:DUSP22 3_prime_UTR_variant&amp;NMD_transcript_variant:DUSP22 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:DUSP22 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_348789   </t>
   </si>
   <si>
     <t>chr21_10597048</t>
   </si>
   <si>
+    <t>POLD3 intron_variant:AP001372.2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_74208458   </t>
+  </si>
+  <si>
     <t>chr21_11098616</t>
   </si>
   <si>
-    <t>BAGE2</t>
+    <t xml:space="preserve">chr11_74208494   </t>
   </si>
   <si>
     <t>chr22_42524975</t>
   </si>
   <si>
-    <t>CYP2D6:NDUFA6-AS1</t>
+    <t>C19orf57 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_14001418   </t>
   </si>
   <si>
     <t>chrX_72433663</t>
   </si>
   <si>
-    <t>NAP1L2</t>
+    <t>BTNL8 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:BTNL8 intron_variant:BTNL8 intron_variant&amp;non_coding_transcript_variant:BTNL8 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_180375306   </t>
   </si>
   <si>
     <t>chrY_59026259</t>
+  </si>
+  <si>
+    <t>KRTAP10-7 synonymous_variant:TSPEAR intron_variant:AL773602.1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21_46020542   </t>
   </si>
 </sst>
 </file>
@@ -1086,13 +1518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1120,10 +1552,16 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1147,12 +1585,15 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1176,12 +1617,15 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1205,12 +1649,15 @@
         <v>0.157894736842105</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1234,12 +1681,15 @@
         <v>0.136363636363636</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1263,12 +1713,15 @@
         <v>0.0333333333333333</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1294,10 +1747,13 @@
       <c r="I7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1321,12 +1777,15 @@
         <v>0.133333333333333</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1350,12 +1809,15 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1379,12 +1841,15 @@
         <v>0.153846153846154</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1408,12 +1873,15 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1437,12 +1905,15 @@
         <v>0.0294117647058824</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1466,12 +1937,15 @@
         <v>0.115384615384615</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1495,12 +1969,15 @@
         <v>0.210526315789474</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1524,12 +2001,21 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1553,12 +2039,15 @@
         <v>0.2</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1582,12 +2071,15 @@
         <v>0.15</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1611,12 +2103,15 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1640,12 +2135,15 @@
         <v>0.0144927536231884</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1669,12 +2167,21 @@
         <v>0.125</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1698,12 +2205,21 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="J21" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1727,12 +2243,15 @@
         <v>0.0285714285714286</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1756,12 +2275,15 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1785,12 +2307,15 @@
         <v>0.03125</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1814,12 +2339,15 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1843,12 +2371,15 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1872,12 +2403,15 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1901,12 +2435,15 @@
         <v>0.0263157894736842</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1930,12 +2467,15 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1959,12 +2499,15 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1988,12 +2531,15 @@
         <v>0.125</v>
       </c>
       <c r="I31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2017,12 +2563,15 @@
         <v>0.349056603773585</v>
       </c>
       <c r="I32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2046,12 +2595,15 @@
         <v>0.157894736842105</v>
       </c>
       <c r="I33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2075,12 +2627,15 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2104,12 +2659,15 @@
         <v>0.0217391304347826</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2133,12 +2691,15 @@
         <v>0.0443037974683544</v>
       </c>
       <c r="I36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2162,12 +2723,15 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2191,12 +2755,15 @@
         <v>0.391304347826087</v>
       </c>
       <c r="I38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2220,12 +2787,15 @@
         <v>0.0222222222222222</v>
       </c>
       <c r="I39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2249,12 +2819,15 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>127</v>
+      </c>
+      <c r="J40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2278,12 +2851,15 @@
         <v>0.103448275862069</v>
       </c>
       <c r="I41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2307,12 +2883,15 @@
         <v>0.0967741935483871</v>
       </c>
       <c r="I42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2336,12 +2915,15 @@
         <v>0.0574712643678161</v>
       </c>
       <c r="I43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>135</v>
+      </c>
+      <c r="J43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2365,12 +2947,15 @@
         <v>0.0952380952380952</v>
       </c>
       <c r="I44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2394,12 +2979,15 @@
         <v>0.0689655172413793</v>
       </c>
       <c r="I45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2423,12 +3011,15 @@
         <v>0.0769230769230769</v>
       </c>
       <c r="I46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2452,12 +3043,15 @@
         <v>0.032258064516129</v>
       </c>
       <c r="I47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2481,12 +3075,15 @@
         <v>0.181818181818182</v>
       </c>
       <c r="I48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2510,12 +3107,15 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2539,12 +3139,15 @@
         <v>0.16</v>
       </c>
       <c r="I50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2568,12 +3171,15 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="J51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2597,12 +3203,15 @@
         <v>0.1875</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2626,12 +3235,15 @@
         <v>0.104166666666667</v>
       </c>
       <c r="I53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2655,12 +3267,15 @@
         <v>0.0454545454545455</v>
       </c>
       <c r="I54" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2684,12 +3299,15 @@
         <v>0.323529411764706</v>
       </c>
       <c r="I55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2713,12 +3331,15 @@
         <v>0.1</v>
       </c>
       <c r="I56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2742,12 +3363,15 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J57" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2771,12 +3395,15 @@
         <v>0.5</v>
       </c>
       <c r="I58" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>178</v>
+      </c>
+      <c r="J58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2800,12 +3427,15 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="I59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2829,12 +3459,15 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2858,12 +3491,15 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2887,12 +3523,15 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2916,12 +3555,15 @@
         <v>0.194444444444444</v>
       </c>
       <c r="I63" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2945,12 +3587,15 @@
         <v>0.125</v>
       </c>
       <c r="I64" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J64" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2974,12 +3619,15 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J65" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3003,12 +3651,21 @@
         <v>0.0740740740740741</v>
       </c>
       <c r="I66" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>202</v>
+      </c>
+      <c r="J66" t="s">
+        <v>203</v>
+      </c>
+      <c r="K66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3032,12 +3689,15 @@
         <v>0.0769230769230769</v>
       </c>
       <c r="I67" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>207</v>
+      </c>
+      <c r="J67" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3061,12 +3721,15 @@
         <v>0.166666666666667</v>
       </c>
       <c r="I68" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3090,12 +3753,15 @@
         <v>0.0384615384615385</v>
       </c>
       <c r="I69" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>213</v>
+      </c>
+      <c r="J69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3119,12 +3785,15 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>216</v>
+      </c>
+      <c r="J70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3148,12 +3817,15 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>219</v>
+      </c>
+      <c r="J71" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3177,12 +3849,15 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J72" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3206,12 +3881,15 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>225</v>
+      </c>
+      <c r="J73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3235,12 +3913,15 @@
         <v>0.00900900900900901</v>
       </c>
       <c r="I74" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>228</v>
+      </c>
+      <c r="J74" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3264,12 +3945,15 @@
         <v>0.08</v>
       </c>
       <c r="I75" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>231</v>
+      </c>
+      <c r="J75" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3293,12 +3977,15 @@
         <v>0.0135135135135135</v>
       </c>
       <c r="I76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J76" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3322,12 +4009,15 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J77" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3351,12 +4041,15 @@
         <v>0.184210526315789</v>
       </c>
       <c r="I78" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>239</v>
+      </c>
+      <c r="J78" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3380,12 +4073,15 @@
         <v>0.125</v>
       </c>
       <c r="I79" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>242</v>
+      </c>
+      <c r="J79" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3409,12 +4105,15 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J80" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3438,12 +4137,15 @@
         <v>0.125</v>
       </c>
       <c r="I81" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>247</v>
+      </c>
+      <c r="J81" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3467,12 +4169,15 @@
         <v>0.0421052631578947</v>
       </c>
       <c r="I82" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3496,12 +4201,15 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>252</v>
+      </c>
+      <c r="J83" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>167</v>
+        <v>254</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3525,12 +4233,15 @@
         <v>0.0540540540540541</v>
       </c>
       <c r="I84" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J84" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3554,12 +4265,15 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>258</v>
+      </c>
+      <c r="J85" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3583,12 +4297,15 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>261</v>
+      </c>
+      <c r="J86" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3612,12 +4329,15 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>264</v>
+      </c>
+      <c r="J87" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3641,12 +4361,15 @@
         <v>0.0377358490566038</v>
       </c>
       <c r="I88" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>267</v>
+      </c>
+      <c r="J88" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3670,12 +4393,15 @@
         <v>0.03125</v>
       </c>
       <c r="I89" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>270</v>
+      </c>
+      <c r="J89" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3699,12 +4425,15 @@
         <v>0.121951219512195</v>
       </c>
       <c r="I90" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>273</v>
+      </c>
+      <c r="J90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3728,12 +4457,15 @@
         <v>0.0144927536231884</v>
       </c>
       <c r="I91" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>276</v>
+      </c>
+      <c r="J91" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3757,12 +4489,15 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>279</v>
+      </c>
+      <c r="J92" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>281</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3786,12 +4521,15 @@
         <v>0.111111111111111</v>
       </c>
       <c r="I93" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>282</v>
+      </c>
+      <c r="J93" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>185</v>
+        <v>284</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3815,12 +4553,15 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>285</v>
+      </c>
+      <c r="J94" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>187</v>
+        <v>287</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -3844,12 +4585,15 @@
         <v>0.0666666666666667</v>
       </c>
       <c r="I95" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>288</v>
+      </c>
+      <c r="J95" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>189</v>
+        <v>290</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3873,12 +4617,15 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>291</v>
+      </c>
+      <c r="J96" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3902,12 +4649,15 @@
         <v>0.0714285714285714</v>
       </c>
       <c r="I97" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>294</v>
+      </c>
+      <c r="J97" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>296</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3931,12 +4681,15 @@
         <v>0.04</v>
       </c>
       <c r="I98" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>297</v>
+      </c>
+      <c r="J98" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3960,12 +4713,15 @@
         <v>0.0357142857142857</v>
       </c>
       <c r="I99" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J99" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3989,12 +4745,15 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>302</v>
+      </c>
+      <c r="J100" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>304</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4018,12 +4777,21 @@
         <v>0.375</v>
       </c>
       <c r="I101" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>305</v>
+      </c>
+      <c r="J101" t="s">
+        <v>306</v>
+      </c>
+      <c r="K101" t="s">
+        <v>307</v>
+      </c>
+      <c r="L101" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4047,12 +4815,15 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>309</v>
+      </c>
+      <c r="J102" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>311</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4076,12 +4847,15 @@
         <v>0.04</v>
       </c>
       <c r="I103" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>312</v>
+      </c>
+      <c r="J103" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4105,12 +4879,15 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>315</v>
+      </c>
+      <c r="J104" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>317</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4134,12 +4911,15 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>318</v>
+      </c>
+      <c r="J105" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4163,12 +4943,15 @@
         <v>0.153846153846154</v>
       </c>
       <c r="I106" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>321</v>
+      </c>
+      <c r="J106" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>210</v>
+        <v>323</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4192,12 +4975,15 @@
         <v>0.129032258064516</v>
       </c>
       <c r="I107" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>324</v>
+      </c>
+      <c r="J107" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>212</v>
+        <v>326</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4221,12 +5007,15 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>327</v>
+      </c>
+      <c r="J108" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4250,12 +5039,15 @@
         <v>0.211764705882353</v>
       </c>
       <c r="I109" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>330</v>
+      </c>
+      <c r="J109" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4279,12 +5071,21 @@
         <v>0.133333333333333</v>
       </c>
       <c r="I110" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>333</v>
+      </c>
+      <c r="J110" t="s">
+        <v>334</v>
+      </c>
+      <c r="K110" t="s">
+        <v>335</v>
+      </c>
+      <c r="L110" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>218</v>
+        <v>337</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4308,12 +5109,15 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>338</v>
+      </c>
+      <c r="J111" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>219</v>
+        <v>340</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4337,12 +5141,15 @@
         <v>0.0731707317073171</v>
       </c>
       <c r="I112" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>341</v>
+      </c>
+      <c r="J112" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>221</v>
+        <v>343</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4366,12 +5173,15 @@
         <v>0.0136363636363636</v>
       </c>
       <c r="I113" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="J113" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>223</v>
+        <v>346</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -4395,12 +5205,15 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>347</v>
+      </c>
+      <c r="J114" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>225</v>
+        <v>349</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4424,12 +5237,15 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>350</v>
+      </c>
+      <c r="J115" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>352</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4453,12 +5269,15 @@
         <v>0.0294117647058824</v>
       </c>
       <c r="I116" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>353</v>
+      </c>
+      <c r="J116" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>228</v>
+        <v>355</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4482,12 +5301,21 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>356</v>
+      </c>
+      <c r="J117" t="s">
+        <v>357</v>
+      </c>
+      <c r="K117" t="s">
+        <v>358</v>
+      </c>
+      <c r="L117" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4511,12 +5339,15 @@
         <v>0.0454545454545455</v>
       </c>
       <c r="I118" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J118" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>231</v>
+        <v>363</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4540,12 +5371,15 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>364</v>
+      </c>
+      <c r="J119" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>233</v>
+        <v>366</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -4569,12 +5403,15 @@
         <v>0.14</v>
       </c>
       <c r="I120" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J120" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>235</v>
+        <v>368</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4598,12 +5435,15 @@
         <v>0.125</v>
       </c>
       <c r="I121" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>369</v>
+      </c>
+      <c r="J121" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>236</v>
+        <v>371</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4627,12 +5467,15 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>372</v>
+      </c>
+      <c r="J122" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4656,12 +5499,15 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>375</v>
+      </c>
+      <c r="J123" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4685,12 +5531,15 @@
         <v>0.282051282051282</v>
       </c>
       <c r="I124" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>378</v>
+      </c>
+      <c r="J124" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4714,12 +5563,15 @@
         <v>0.0212765957446809</v>
       </c>
       <c r="I125" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>378</v>
+      </c>
+      <c r="J125" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>242</v>
+        <v>382</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4743,12 +5595,15 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>383</v>
+      </c>
+      <c r="J126" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>244</v>
+        <v>385</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -4772,12 +5627,15 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>386</v>
+      </c>
+      <c r="J127" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>246</v>
+        <v>388</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4801,7 +5659,10 @@
         <v>0.4</v>
       </c>
       <c r="I128" t="s">
-        <v>12</v>
+        <v>389</v>
+      </c>
+      <c r="J128" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
